--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_16_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53471.10695111989</v>
+        <v>10640750.28327285</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53471.10695111989</v>
+        <v>10640750.28327285</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189369404.106764</v>
+        <v>48983516.08997114</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10093.98689652595</v>
+        <v>1121740.878400233</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19248.17432325113</v>
+        <v>2097223.208723977</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28402.36174997629</v>
+        <v>3072705.539047723</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37970.15308979808</v>
+        <v>4069650.952174171</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47432.777560933</v>
+        <v>5045668.158431932</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>56895.4020320679</v>
+        <v>6021685.364689693</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66358.02650320281</v>
+        <v>6997702.57094745</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75820.65097433772</v>
+        <v>7973719.777205207</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85321.31201316982</v>
+        <v>8951628.086493267</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94812.47002169886</v>
+        <v>9927645.292751025</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104303.6280302279</v>
+        <v>10903662.49900879</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113380.0979511048</v>
+        <v>11858751.49839787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122561.7347406685</v>
+        <v>12834768.70465563</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>131743.3715302322</v>
+        <v>13810785.9109134</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140925.008319796</v>
+        <v>14786803.11717117</v>
       </c>
     </row>
   </sheetData>
@@ -27037,34 +27037,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>354</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>378</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>166</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
